--- a/biology/Botanique/Pinus_wallichiana/Pinus_wallichiana.xlsx
+++ b/biology/Botanique/Pinus_wallichiana/Pinus_wallichiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus wallichiana
 Le Pin de l'Himalaya ou Pin pleureur de l'Himalaya (Pinus wallichiana) est une espèce de plantes de la famille des Pinaceae. C'est un arbre originaire de l'arc himalayen, de l'Afghanistan à la Birmanie.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pinus excelsa Wall. ex Lamb.
 Pinus griffithii</t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille : jusqu'à 45 mètres.[réf. nécessaire]
 Aiguilles : longues de 12-20 cm[réf. nécessaire], groupées par 5 en bouquets tombant, de couleur glauque, doux au toucher.
@@ -577,11 +593,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus wallichiana vit dans l'arc himalayen, en Afghanistan, au Pakistan, en Inde, au Népal, au Bhoutan, en Chine et en Birmanie. 
-Il pousse dans les vallées ou à la base des montagnes, à une altitude maximale de 2 700 m, sauf au Bhoutan où il atteint 3 400 m[1]. Il peut être l'espèce largement dominante et former des forêts ou être mêlé à d'autres espèces de conifères (par exemple Cedrus deodara à l'ouest de son aire de répartition, et à l'est Pinus roxburghii, Abies spectabilis ou Abies densa, et Tsuga dumosa)[1].
-Cette espèce de pin a été introduite en France. L'un des premiers spécimens a été planté en 1844 au Jardin des plantes à Paris où on peut encore le voir au début du XXIe siècle[2].
+Il pousse dans les vallées ou à la base des montagnes, à une altitude maximale de 2 700 m, sauf au Bhoutan où il atteint 3 400 m. Il peut être l'espèce largement dominante et former des forêts ou être mêlé à d'autres espèces de conifères (par exemple Cedrus deodara à l'ouest de son aire de répartition, et à l'est Pinus roxburghii, Abies spectabilis ou Abies densa, et Tsuga dumosa).
+Cette espèce de pin a été introduite en France. L'un des premiers spécimens a été planté en 1844 au Jardin des plantes à Paris où on peut encore le voir au début du XXIe siècle.
 </t>
         </is>
       </c>
